--- a/Data/Details.xlsx
+++ b/Data/Details.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmutalik\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA\Work_Space\Financial_Accounting\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="UserDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,18 +25,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Vijay Mutalik</t>
-  </si>
-  <si>
-    <t>Amrutha Kulkarni</t>
-  </si>
-  <si>
-    <t>Xerox Business Services</t>
-  </si>
-  <si>
-    <t>Wipro Technology</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>ErrMsg</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>asee</t>
+  </si>
+  <si>
+    <t>dsfsdf</t>
+  </si>
+  <si>
+    <t>Username or Password is invalid. Please try again.</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>actiTIME 2017.4</t>
   </si>
 </sst>
 </file>
@@ -353,28 +393,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="45.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Details.xlsx
+++ b/Data/Details.xlsx
@@ -75,7 +75,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>actiTIME 2017.4</t>
+    <t>actiTIME 2017.2</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
